--- a/EUConnect18/data/admin/CourseInfo.xlsx
+++ b/EUConnect18/data/admin/CourseInfo.xlsx
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Instructor</t>
-  </si>
-  <si>
-    <t>givenName</t>
-  </si>
-  <si>
-    <t>surName</t>
-  </si>
-  <si>
     <t>Study19 created during the session. Z used for sorting</t>
-  </si>
-  <si>
-    <t>ZZ2</t>
-  </si>
-  <si>
-    <t>ZZ1</t>
-  </si>
-  <si>
-    <t>ZZ0</t>
-  </si>
-  <si>
-    <t>ZZ3</t>
   </si>
   <si>
     <t>Pull From</t>
@@ -669,542 +648,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="19" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="19" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A21" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="E10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J21">
-    <sortCondition ref="D2:D21"/>
-    <sortCondition ref="C2:C21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/EUConnect18/data/admin/CourseInfo.xlsx
+++ b/EUConnect18/data/admin/CourseInfo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -233,17 +233,10 @@
 in Test</t>
   </si>
   <si>
-    <t>Pull to
- Drug1Pool</t>
-  </si>
-  <si>
     <t>DrugPool1
 emptied</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Pool SEQ updated: from test</t>
   </si>
   <si>
@@ -254,6 +247,18 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>PoolAllStudies-Test</t>
+  </si>
+  <si>
+    <t>new 410.Pool.rq on server</t>
+  </si>
+  <si>
+    <t>New R Vis</t>
+  </si>
+  <si>
+    <t>21 Studies in Pool</t>
   </si>
 </sst>
 </file>
@@ -293,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,11 +369,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -376,7 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -403,27 +426,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,29 +768,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -770,649 +801,771 @@
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A21" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="7" t="s">
+      <c r="F18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="7" t="s">
+      <c r="F19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="7" t="s">
+      <c r="F20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="7" t="s">
+      <c r="F21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="22"/>
+      <c r="F22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,67 +1589,67 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="20">
         <v>43406</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="28"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
+      <c r="C16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EUConnect18/data/admin/CourseInfo.xlsx
+++ b/EUConnect18/data/admin/CourseInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="2" r:id="rId1"/>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Study19 created during the session. Z used for sorting</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>STUDY99 mystery server. Z used for sorting. NOT USED in live session other than for mystery pool.</t>
-  </si>
-  <si>
-    <t>Unused</t>
-  </si>
-  <si>
-    <t>POOL Created in Drug1Pool. .</t>
   </si>
   <si>
     <t>server</t>
@@ -259,6 +247,15 @@
   </si>
   <si>
     <t>21 Studies in Pool</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Study20 created by Instructor during session</t>
+  </si>
+  <si>
+    <t>STUDY99 mystery server.Only used for Mystery Study "Study99" during pool. Data confirmed in LDWStudy graph on 2018-11-04</t>
   </si>
 </sst>
 </file>
@@ -319,7 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -398,7 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -438,22 +434,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,801 +781,868 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="K1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A21" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,75 +1658,75 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="20">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19">
         <v>43406</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EUConnect18/data/admin/CourseInfo.xlsx
+++ b/EUConnect18/data/admin/CourseInfo.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
